--- a/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
+++ b/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
+    <sheet name="Ta-Nb-V Calib - RBS1 - Protoes" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
   <si>
     <t>2000 keV</t>
   </si>
@@ -123,13 +127,201 @@
   </si>
   <si>
     <t>6 % DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0 = </t>
+  </si>
+  <si>
+    <t>keV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb density = </t>
+  </si>
+  <si>
+    <t>g/cm^3</t>
+  </si>
+  <si>
+    <t>K * E_0</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Kinematic factor [K]</t>
+  </si>
+  <si>
+    <t>Back Energy (keV) [K * E0]</t>
+  </si>
+  <si>
+    <t>Surface channel</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>mg/cm2</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>+-</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Target 1</t>
+  </si>
+  <si>
+    <t>Pb channel in</t>
+  </si>
+  <si>
+    <t>Pb channel out</t>
+  </si>
+  <si>
+    <t>Delta_E (keV)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_in [E_0] (MeV cm^2 / g)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_in [E_0] (eV/nm)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_out [K * E_0] (MeV cm^2 / g)</t>
+  </si>
+  <si>
+    <t>(dE/dx)_out [K * E_0] (eV/nm)</t>
+  </si>
+  <si>
+    <t>[S] (eV/nm)</t>
+  </si>
+  <si>
+    <t>x (nm)</t>
+  </si>
+  <si>
+    <t>C channel in</t>
+  </si>
+  <si>
+    <t>C channel out</t>
+  </si>
+  <si>
+    <t>O channel in</t>
+  </si>
+  <si>
+    <t>O channel out</t>
+  </si>
+  <si>
+    <t>Target 2</t>
+  </si>
+  <si>
+    <t>Target 4</t>
+  </si>
+  <si>
+    <t>20 mm</t>
+  </si>
+  <si>
+    <t>22 mm</t>
+  </si>
+  <si>
+    <t>Target 5</t>
+  </si>
+  <si>
+    <t>33 mm</t>
+  </si>
+  <si>
+    <t>500?</t>
+  </si>
+  <si>
+    <t>480?</t>
+  </si>
+  <si>
+    <t>Target 6</t>
+  </si>
+  <si>
+    <t>44 mm</t>
+  </si>
+  <si>
+    <t>520?</t>
+  </si>
+  <si>
+    <t>46 mm</t>
+  </si>
+  <si>
+    <t>Target 7</t>
+  </si>
+  <si>
+    <t>56 mm</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Caladea"/>
+        <family val="1"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <t>15 mm</t>
+  </si>
+  <si>
+    <t>55 mm</t>
+  </si>
+  <si>
+    <t>Target E2</t>
+  </si>
+  <si>
+    <t>180º</t>
+  </si>
+  <si>
+    <t>58 mm</t>
+  </si>
+  <si>
+    <t>60 mm</t>
+  </si>
+  <si>
+    <t>Form  var</t>
+  </si>
+  <si>
+    <t>35 mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -151,8 +343,85 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Caladea"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +494,128 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF97BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFB4C7E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBDDE"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0A072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0A072"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -346,11 +735,284 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,6 +1224,391 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="28" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="29" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="29" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="29" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="29" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="29" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="30" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="30" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="30" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="29" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="29" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="5" fillId="29" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="32" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="32" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="31" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,6 +1685,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFC0A072"/>
       <color rgb="FFFFEBFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFBDDE"/>
@@ -653,6 +1701,1602 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Calib.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25560">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6290191663451543E-2"/>
+                  <c:y val="-0.22220599701166391"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 2,3671x + 46,376</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t/>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>R² = 0,999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Protoes'!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ta-Nb-V Calib - RBS1 - Protoes'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1563.7159776396684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1738.6148261306816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1851.4223731335767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1917.1213586935332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1957.0104259791678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4098608"/>
+        <c:axId val="4111120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4098608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4111120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="4111120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" strike="noStrike" spc="-1">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Energy (keV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="BFBFBF"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4098608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15823905209988828"/>
+          <c:y val="0.21608161861433289"/>
+          <c:w val="0.81546627698102392"/>
+          <c:h val="0.62706207383286316"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pb signal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Protoes'!$V$13,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$18,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$23)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>31.958463679529256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.875391038587935</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Ta-Nb-V Calib - RBS1 - Protoes'!$V$13,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$18,'Ta-Nb-V Calib - RBS1 - Protoes'!$V$23)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>31.958463679529256</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>95.875391038587935</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>('[1]Ta-Nb-V Calib - RBS1 - Alfa'!$I$11,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$I$18,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$I$23)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Target 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Traget 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Target 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$16,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$21,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>954.79088945786589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1013.1057170843676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>842.10379668477685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="4102416"/>
+        <c:axId val="4107856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4102416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>Target 1   </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1" baseline="0"/>
+                  <a:t>           </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1200" b="1"/>
+                  <a:t>  Target 3                              Target 4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.27238079615048116"/>
+              <c:y val="0.89268518518518514"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="4107856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="4107856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1"/>
+                  <a:t>Thickness</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0"/>
+                  <a:t> (nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4102416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152022</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158132</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50971</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>206169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>338117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>995136</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201757</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Runs"/>
+      <sheetName val="Ta-Nb-V Calib - RBS1 - Alfa"/>
+      <sheetName val="Ta-Nb-V Calib - RBS1 - Protoes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="I2">
+            <v>269</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3">
+            <v>437</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4">
+            <v>582</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>673</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>732.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7">
+            <v>742.94929634147081</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11" t="str">
+            <v>Target 1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="R16">
+            <v>954.79088945786589</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>Traget 3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="R21">
+            <v>1013.1057170843676</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
+            <v>Target 4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="R26">
+            <v>842.10379668477685</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,7 +3564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1418,4 +4062,2861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AC59" sqref="AC59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1796875" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.81640625" customWidth="1"/>
+    <col min="38" max="39" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.1796875" customWidth="1"/>
+    <col min="44" max="44" width="11.36328125" customWidth="1"/>
+    <col min="45" max="45" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="74">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="77">
+        <v>11.31</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="84">
+        <v>8</v>
+      </c>
+      <c r="E4" s="85">
+        <v>15.999000000000001</v>
+      </c>
+      <c r="F4" s="86">
+        <f t="shared" ref="F4:F11" si="0">((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
+        <v>0.78185798881983415</v>
+      </c>
+      <c r="G4" s="87">
+        <f>$B$1*F4</f>
+        <v>1563.7159776396684</v>
+      </c>
+      <c r="H4" s="88">
+        <v>643</v>
+      </c>
+      <c r="I4">
+        <f>H4-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I2</f>
+        <v>374</v>
+      </c>
+      <c r="S4" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="92"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="92"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="C5" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="94">
+        <v>14</v>
+      </c>
+      <c r="E5" s="95">
+        <v>28.085000000000001</v>
+      </c>
+      <c r="F5" s="86">
+        <f t="shared" si="0"/>
+        <v>0.86930741306534087</v>
+      </c>
+      <c r="G5" s="96">
+        <f>$B$1*F5</f>
+        <v>1738.6148261306816</v>
+      </c>
+      <c r="H5" s="97">
+        <v>712</v>
+      </c>
+      <c r="I5">
+        <f>H5-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I3</f>
+        <v>275</v>
+      </c>
+      <c r="S5" s="98">
+        <v>4</v>
+      </c>
+      <c r="T5" s="99">
+        <f>T13</f>
+        <v>1459.8053625960727</v>
+      </c>
+      <c r="U5" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="101">
+        <f>V13</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="102">
+        <f>T5*344.092/0.30397*10^(-6)</f>
+        <v>1.6524898734296403</v>
+      </c>
+      <c r="X5" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="103">
+        <f>V5*344.092/0.30397*10^(-6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="C6" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="105">
+        <v>23</v>
+      </c>
+      <c r="E6" s="106">
+        <v>50.942</v>
+      </c>
+      <c r="F6" s="86">
+        <f t="shared" si="0"/>
+        <v>0.9257111865667883</v>
+      </c>
+      <c r="G6" s="107">
+        <f>$B$1*F6</f>
+        <v>1851.4223731335767</v>
+      </c>
+      <c r="H6" s="108">
+        <v>761</v>
+      </c>
+      <c r="I6">
+        <f>H6-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I4</f>
+        <v>179</v>
+      </c>
+      <c r="S6" s="98">
+        <v>5</v>
+      </c>
+      <c r="T6" s="99">
+        <f>T18</f>
+        <v>1016.9120872844613</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="101">
+        <f>V18</f>
+        <v>31.958463679529256</v>
+      </c>
+      <c r="W6" s="102">
+        <f t="shared" ref="W6:W7" si="1">T6*344.092/0.30397*10^(-6)</f>
+        <v>1.1511376581171986</v>
+      </c>
+      <c r="X6" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="103">
+        <f t="shared" ref="Y6:Y7" si="2">V6*344.092/0.30397*10^(-6)</f>
+        <v>3.6176766405949863E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="110">
+        <v>41</v>
+      </c>
+      <c r="E7" s="111">
+        <v>92.906000000000006</v>
+      </c>
+      <c r="F7" s="86">
+        <f t="shared" si="0"/>
+        <v>0.95856067934676659</v>
+      </c>
+      <c r="G7" s="112">
+        <f>$B$1*F7</f>
+        <v>1917.1213586935332</v>
+      </c>
+      <c r="H7" s="113">
+        <v>792</v>
+      </c>
+      <c r="I7">
+        <f>H7-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I5</f>
+        <v>119</v>
+      </c>
+      <c r="S7" s="114">
+        <v>6</v>
+      </c>
+      <c r="T7" s="115">
+        <f>T23</f>
+        <v>1920.833942648427</v>
+      </c>
+      <c r="U7" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="117">
+        <f>V23</f>
+        <v>95.875391038587935</v>
+      </c>
+      <c r="W7" s="118">
+        <f t="shared" si="1"/>
+        <v>2.1743711319991528</v>
+      </c>
+      <c r="X7" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="119">
+        <f t="shared" si="2"/>
+        <v>0.10853029921784976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="121">
+        <v>73</v>
+      </c>
+      <c r="E8" s="122">
+        <v>180.95</v>
+      </c>
+      <c r="F8" s="123">
+        <f t="shared" si="0"/>
+        <v>0.97850521298958393</v>
+      </c>
+      <c r="G8" s="124">
+        <f>$B$1*F8</f>
+        <v>1957.0104259791678</v>
+      </c>
+      <c r="H8" s="125">
+        <v>808</v>
+      </c>
+      <c r="I8" s="202">
+        <f>H8-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I6</f>
+        <v>75.5</v>
+      </c>
+      <c r="J8" s="126"/>
+      <c r="S8" s="114">
+        <v>7</v>
+      </c>
+      <c r="T8" s="115">
+        <f>T24</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="V8" s="117">
+        <f>V24</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="118">
+        <f t="shared" ref="W8" si="3">T8*344.092/0.30397*10^(-6)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="116" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="119">
+        <f t="shared" ref="Y8" si="4">V8*344.092/0.30397*10^(-6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="128">
+        <v>82</v>
+      </c>
+      <c r="E9" s="128">
+        <v>207.2</v>
+      </c>
+      <c r="F9" s="129">
+        <f t="shared" si="0"/>
+        <v>0.9812026480871997</v>
+      </c>
+      <c r="G9" s="130">
+        <f t="shared" ref="G9:G11" si="5">$B$1*F9</f>
+        <v>1962.4052961743994</v>
+      </c>
+      <c r="H9" s="131">
+        <f>(G9-46.367)/2.3671</f>
+        <v>809.4454379512481</v>
+      </c>
+      <c r="I9" s="202">
+        <f>H9-'[1]Ta-Nb-V Calib - RBS1 - Alfa'!I7</f>
+        <v>66.496141609777283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="2"/>
+      <c r="K10" s="132" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="138"/>
+      <c r="V10" s="139"/>
+      <c r="X10" s="186"/>
+      <c r="Y10" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z10" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC10" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD10" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE10" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF10" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG10" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="139"/>
+      <c r="AK10" s="140"/>
+      <c r="AL10" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM10" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN10" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO10" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ10" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR10" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS10" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT10" s="144" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10" s="138"/>
+      <c r="AV10" s="139"/>
+    </row>
+    <row r="11" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="206" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="207">
+        <v>17</v>
+      </c>
+      <c r="E11" s="207">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F11" s="204">
+        <f t="shared" si="0"/>
+        <v>0.89499019427127813</v>
+      </c>
+      <c r="G11" s="205">
+        <f t="shared" si="5"/>
+        <v>1789.9803885425563</v>
+      </c>
+      <c r="H11" s="208">
+        <f>(G11-46.367)/2.3671</f>
+        <v>736.60318049197588</v>
+      </c>
+      <c r="K11" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="146">
+        <v>808</v>
+      </c>
+      <c r="M11" s="147">
+        <v>776</v>
+      </c>
+      <c r="N11" s="148">
+        <f>(L11-M11)*2.381</f>
+        <v>76.191999999999993</v>
+      </c>
+      <c r="O11" s="147">
+        <v>45.37</v>
+      </c>
+      <c r="P11" s="149">
+        <f>O11*$B$2/10</f>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q11" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R11" s="150">
+        <f>Q11*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S11" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P11)+(1/COS(RADIANS(15)*R11)))</f>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T11" s="152">
+        <f>N11*10^3/S11</f>
+        <v>1459.8053625960727</v>
+      </c>
+      <c r="U11" s="153"/>
+      <c r="V11" s="154">
+        <f>($T$13-T11)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="191"/>
+      <c r="Y11" s="146">
+        <v>612</v>
+      </c>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="148">
+        <f>(Y11-Z11)*2.381</f>
+        <v>1457.1719999999998</v>
+      </c>
+      <c r="AB11" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC11" s="149">
+        <f>AB11*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD11" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE11" s="150">
+        <f>AD11*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF11" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC11)+(1/COS(RADIANS(15)*AE11)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG11" s="197">
+        <f>AA11*10^3/AF11</f>
+        <v>9929.9591797744542</v>
+      </c>
+      <c r="AH11" s="153"/>
+      <c r="AI11" s="156"/>
+      <c r="AK11" s="155"/>
+      <c r="AL11" s="146">
+        <v>560</v>
+      </c>
+      <c r="AM11" s="147"/>
+      <c r="AN11" s="148">
+        <f>(AL11-AM11)*2.381</f>
+        <v>1333.36</v>
+      </c>
+      <c r="AO11" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP11" s="149">
+        <f>AO11*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ11" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR11" s="150">
+        <f>AQ11*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS11" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP11)+(1/COS(RADIANS(15)*AR11)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT11" s="197">
+        <f>AN11*10^3/AS11</f>
+        <v>8727.605706079501</v>
+      </c>
+      <c r="AU11" s="153"/>
+      <c r="AV11" s="156"/>
+    </row>
+    <row r="12" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="162" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="163">
+        <v>808</v>
+      </c>
+      <c r="M12" s="164">
+        <v>776</v>
+      </c>
+      <c r="N12" s="165">
+        <f t="shared" ref="N12" si="6">(L12-M12)*2.381</f>
+        <v>76.191999999999993</v>
+      </c>
+      <c r="O12" s="166">
+        <v>45.37</v>
+      </c>
+      <c r="P12" s="167">
+        <f t="shared" ref="P12" si="7">O12*$B$2/10</f>
+        <v>51.313469999999995</v>
+      </c>
+      <c r="Q12" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R12" s="168">
+        <f t="shared" ref="R12" si="8">Q12*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S12" s="169">
+        <f t="shared" ref="S12" si="9">(($F$9/COS(RADIANS(0))*P12)+(1/COS(RADIANS(15)*R12)))</f>
+        <v>52.19325942501164</v>
+      </c>
+      <c r="T12" s="170">
+        <f>N12*10^3/S12</f>
+        <v>1459.8053625960727</v>
+      </c>
+      <c r="U12" s="153"/>
+      <c r="V12" s="154">
+        <f>($T$13-T12)^2</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="157">
+        <v>611</v>
+      </c>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="148">
+        <f>(Y12-Z12)*2.381</f>
+        <v>1454.7909999999999</v>
+      </c>
+      <c r="AB12" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC12" s="159">
+        <f t="shared" ref="AC12" si="10">AB12*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD12" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE12" s="160">
+        <f t="shared" ref="AE12" si="11">AD12*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF12" s="151">
+        <f t="shared" ref="AF12" si="12">(($F$9/COS(RADIANS(0))*AC12)+(1/COS(RADIANS(15)*AE12)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG12" s="198">
+        <f>AA12*10^3/AF12</f>
+        <v>9913.7337562780922</v>
+      </c>
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="156"/>
+      <c r="AK12" s="161"/>
+      <c r="AL12" s="157">
+        <v>560</v>
+      </c>
+      <c r="AM12" s="158"/>
+      <c r="AN12" s="148">
+        <f t="shared" ref="AN12" si="13">(AL12-AM12)*2.381</f>
+        <v>1333.36</v>
+      </c>
+      <c r="AO12" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP12" s="159">
+        <f t="shared" ref="AP12" si="14">AO12*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ12" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR12" s="160">
+        <f t="shared" ref="AR12" si="15">AQ12*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS12" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP12)+(1/COS(RADIANS(15)*AR12)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT12" s="198">
+        <f>AN12*10^3/AS12</f>
+        <v>8727.605706079501</v>
+      </c>
+      <c r="AU12" s="153"/>
+      <c r="AV12" s="156"/>
+    </row>
+    <row r="13" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="172"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="173">
+        <f>SUM(T11:T12)/2</f>
+        <v>1459.8053625960727</v>
+      </c>
+      <c r="U13" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" s="175">
+        <f>SQRT(SUM(V11:V12))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="153"/>
+      <c r="AI13" s="156"/>
+      <c r="AK13" s="176"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="200"/>
+      <c r="AU13" s="153"/>
+      <c r="AV13" s="156"/>
+    </row>
+    <row r="14" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K14" s="172"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="156"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="156"/>
+      <c r="AK14" s="176"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="200"/>
+      <c r="AU14" s="153"/>
+      <c r="AV14" s="156"/>
+    </row>
+    <row r="15" spans="1:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="132" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="153"/>
+      <c r="V15" s="156"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD15" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE15" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF15" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH15" s="153"/>
+      <c r="AI15" s="156"/>
+      <c r="AK15" s="140"/>
+      <c r="AL15" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM15" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN15" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO15" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ15" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR15" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS15" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT15" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="153"/>
+      <c r="AV15" s="156"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="K16" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="146">
+        <v>811</v>
+      </c>
+      <c r="M16" s="147">
+        <v>789</v>
+      </c>
+      <c r="N16" s="148">
+        <f>(L16-M16)*2.381</f>
+        <v>52.381999999999998</v>
+      </c>
+      <c r="O16" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P16" s="147">
+        <f>O16*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q16" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R16" s="147">
+        <f>Q16*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S16" s="151">
+        <f t="shared" ref="S16:S17" si="16">(($F$9/COS(RADIANS(0))*P16)+(1/COS(RADIANS(15)*R16)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T16" s="152">
+        <f>N16*10^3/S16</f>
+        <v>994.31404090036222</v>
+      </c>
+      <c r="U16" s="153"/>
+      <c r="V16" s="154">
+        <f>($T$18-T16)^2</f>
+        <v>510.67170037789532</v>
+      </c>
+      <c r="X16" s="191"/>
+      <c r="Y16" s="146">
+        <v>623</v>
+      </c>
+      <c r="Z16" s="147"/>
+      <c r="AA16" s="148">
+        <f t="shared" ref="AA16:AA17" si="17">(Y16-Z16)*2.381</f>
+        <v>1483.3629999999998</v>
+      </c>
+      <c r="AB16" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC16" s="147">
+        <f>AB16*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD16" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE16" s="147">
+        <f>AD16*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF16" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC16)+(1/COS(RADIANS(15)*AE16)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG16" s="197">
+        <f>AA16*10^3/AF16</f>
+        <v>10108.438838234453</v>
+      </c>
+      <c r="AH16" s="153"/>
+      <c r="AI16" s="156"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="146">
+        <v>571</v>
+      </c>
+      <c r="AM16" s="147" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="148" t="e">
+        <f t="shared" ref="AN16:AN17" si="18">(AL16-AM16)*2.381</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO16" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP16" s="147">
+        <f>AO16*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ16" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR16" s="147">
+        <f>AQ16*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS16" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP16)+(1/COS(RADIANS(15)*AR16)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT16" s="197" t="e">
+        <f>AN16*10^3/AS16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU16" s="153"/>
+      <c r="AV16" s="156"/>
+    </row>
+    <row r="17" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="177">
+        <v>809</v>
+      </c>
+      <c r="M17" s="178">
+        <v>786</v>
+      </c>
+      <c r="N17" s="165">
+        <f>(L17-M17)*2.381</f>
+        <v>54.762999999999998</v>
+      </c>
+      <c r="O17" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P17" s="164">
+        <f t="shared" ref="P17" si="19">O17*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q17" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R17" s="164">
+        <f t="shared" ref="R17" si="20">Q17*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S17" s="169">
+        <f t="shared" si="16"/>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T17" s="170">
+        <f>N17*10^3/S17</f>
+        <v>1039.5101336685605</v>
+      </c>
+      <c r="U17" s="153"/>
+      <c r="V17" s="154">
+        <f>($T$18-T17)^2</f>
+        <v>510.67170037789532</v>
+      </c>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="177">
+        <v>620</v>
+      </c>
+      <c r="Z17" s="196"/>
+      <c r="AA17" s="165">
+        <f t="shared" si="17"/>
+        <v>1476.2199999999998</v>
+      </c>
+      <c r="AB17" s="166">
+        <v>133.5</v>
+      </c>
+      <c r="AC17" s="164">
+        <f t="shared" ref="AC17" si="21">AB17*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD17" s="166">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE17" s="164">
+        <f t="shared" ref="AE17" si="22">AD17*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF17" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AC17)+(1/COS(RADIANS(15)*AE17)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG17" s="199">
+        <f>AA17*10^3/AF17</f>
+        <v>10059.762567745362</v>
+      </c>
+      <c r="AH17" s="153"/>
+      <c r="AI17" s="156"/>
+      <c r="AK17" s="171"/>
+      <c r="AL17" s="177">
+        <v>570</v>
+      </c>
+      <c r="AM17" s="178" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" s="165" t="e">
+        <f t="shared" si="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO17" s="166">
+        <v>139.5</v>
+      </c>
+      <c r="AP17" s="164">
+        <f t="shared" ref="AP17" si="23">AO17*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ17" s="166">
+        <v>141.5</v>
+      </c>
+      <c r="AR17" s="164">
+        <f t="shared" ref="AR17" si="24">AQ17*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS17" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AP17)+(1/COS(RADIANS(15)*AR17)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT17" s="203" t="e">
+        <f>AN17*10^3/AS17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU17" s="153"/>
+      <c r="AV17" s="156"/>
+    </row>
+    <row r="18" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="172"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="179">
+        <f>SUM(T16:T17)/2</f>
+        <v>1016.9120872844613</v>
+      </c>
+      <c r="U18" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="180">
+        <f>SQRT(SUM(V16:V17))</f>
+        <v>31.958463679529256</v>
+      </c>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="153"/>
+      <c r="AI18" s="156"/>
+      <c r="AK18" s="176"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="200"/>
+      <c r="AU18" s="153"/>
+      <c r="AV18" s="156"/>
+    </row>
+    <row r="19" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="172"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="156"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="153"/>
+      <c r="AI19" s="156"/>
+      <c r="AK19" s="176"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="200"/>
+      <c r="AU19" s="153"/>
+      <c r="AV19" s="156"/>
+    </row>
+    <row r="20" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U20" s="153"/>
+      <c r="V20" s="156"/>
+      <c r="X20" s="186"/>
+      <c r="Y20" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA20" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB20" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC20" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE20" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF20" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG20" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH20" s="153"/>
+      <c r="AI20" s="156"/>
+      <c r="AK20" s="140"/>
+      <c r="AL20" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM20" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN20" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO20" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP20" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ20" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR20" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS20" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT20" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU20" s="153"/>
+      <c r="AV20" s="156"/>
+    </row>
+    <row r="21" spans="11:48" x14ac:dyDescent="0.35">
+      <c r="K21" s="145" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="181">
+        <v>809</v>
+      </c>
+      <c r="M21" s="147">
+        <v>768</v>
+      </c>
+      <c r="N21" s="148">
+        <f>(L21-M21)*2.381</f>
+        <v>97.620999999999995</v>
+      </c>
+      <c r="O21" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P21" s="147">
+        <f>O21*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q21" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R21" s="147">
+        <f>Q21*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S21" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P21)+(1/COS(RADIANS(15)*R21)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T21" s="152">
+        <f>N21*10^3/S21</f>
+        <v>1853.0398034961295</v>
+      </c>
+      <c r="U21" s="153"/>
+      <c r="V21" s="154">
+        <f>($T$23-T21)^2</f>
+        <v>4596.0453034010734</v>
+      </c>
+      <c r="X21" s="191"/>
+      <c r="Y21" s="182">
+        <v>605</v>
+      </c>
+      <c r="Z21" s="147"/>
+      <c r="AA21" s="148">
+        <f t="shared" ref="AA21:AA22" si="25">(Y21-Z21)*2.381</f>
+        <v>1440.5049999999999</v>
+      </c>
+      <c r="AB21" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC21" s="147">
+        <f>AB21*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD21" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE21" s="147">
+        <f>AD21*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF21" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC21)+(1/COS(RADIANS(15)*AE21)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG21" s="197">
+        <f>AA21*10^3/AF21</f>
+        <v>9816.3812152999108</v>
+      </c>
+      <c r="AH21" s="153"/>
+      <c r="AI21" s="156"/>
+      <c r="AK21" s="155"/>
+      <c r="AL21" s="194">
+        <v>555</v>
+      </c>
+      <c r="AM21" s="195" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN21" s="148" t="e">
+        <f t="shared" ref="AN21:AN22" si="26">(AL21-AM21)*2.381</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AO21" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP21" s="147">
+        <f>AO21*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ21" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR21" s="147">
+        <f>AQ21*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS21" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP21)+(1/COS(RADIANS(15)*AR21)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT21" s="197" t="e">
+        <f>AN21*10^3/AS21</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU21" s="153"/>
+      <c r="AV21" s="156"/>
+    </row>
+    <row r="22" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K22" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="163">
+        <v>811</v>
+      </c>
+      <c r="M22" s="164">
+        <v>767</v>
+      </c>
+      <c r="N22" s="165">
+        <f>(L22-M22)*2.381</f>
+        <v>104.764</v>
+      </c>
+      <c r="O22" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P22" s="164">
+        <f>O22*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q22" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R22" s="164">
+        <f>Q22*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S22" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P22)+(1/COS(RADIANS(15)*R22)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T22" s="170">
+        <f>N22*10^3/S22</f>
+        <v>1988.6280818007244</v>
+      </c>
+      <c r="U22" s="153"/>
+      <c r="V22" s="154">
+        <f>($T$23-T22)^2</f>
+        <v>4596.0453034010734</v>
+      </c>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="163">
+        <v>610</v>
+      </c>
+      <c r="Z22" s="164">
+        <v>590</v>
+      </c>
+      <c r="AA22" s="165">
+        <f t="shared" si="25"/>
+        <v>47.62</v>
+      </c>
+      <c r="AB22" s="166">
+        <v>133.5</v>
+      </c>
+      <c r="AC22" s="164">
+        <f t="shared" ref="AC22" si="27">AB22*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD22" s="166">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE22" s="164">
+        <f t="shared" ref="AE22" si="28">AD22*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF22" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AC22)+(1/COS(RADIANS(15)*AE22)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG22" s="199">
+        <f>AA22*10^3/AF22</f>
+        <v>324.5084699272698</v>
+      </c>
+      <c r="AH22" s="153"/>
+      <c r="AI22" s="156"/>
+      <c r="AK22" s="171"/>
+      <c r="AL22" s="177">
+        <v>555</v>
+      </c>
+      <c r="AM22" s="178">
+        <v>536</v>
+      </c>
+      <c r="AN22" s="165">
+        <f t="shared" si="26"/>
+        <v>45.238999999999997</v>
+      </c>
+      <c r="AO22" s="166">
+        <v>139.5</v>
+      </c>
+      <c r="AP22" s="164">
+        <f t="shared" ref="AP22" si="29">AO22*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ22" s="166">
+        <v>141.5</v>
+      </c>
+      <c r="AR22" s="164">
+        <f t="shared" ref="AR22" si="30">AQ22*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS22" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AP22)+(1/COS(RADIANS(15)*AR22)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT22" s="199">
+        <f>AN22*10^3/AS22</f>
+        <v>296.11519359912597</v>
+      </c>
+      <c r="AU22" s="153"/>
+      <c r="AV22" s="156"/>
+    </row>
+    <row r="23" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K23" s="183"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="179">
+        <f>SUM(T21:T22)/2</f>
+        <v>1920.833942648427</v>
+      </c>
+      <c r="U23" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="180">
+        <f>SQRT(SUM(V21:V22))</f>
+        <v>95.875391038587935</v>
+      </c>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="184"/>
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="184"/>
+      <c r="AB23" s="184"/>
+      <c r="AC23" s="184"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="184"/>
+      <c r="AF23" s="184"/>
+      <c r="AG23" s="184"/>
+      <c r="AH23" s="184"/>
+      <c r="AI23" s="185"/>
+      <c r="AK23" s="183"/>
+      <c r="AL23" s="184"/>
+      <c r="AM23" s="184"/>
+      <c r="AN23" s="184"/>
+      <c r="AO23" s="184"/>
+      <c r="AP23" s="184"/>
+      <c r="AQ23" s="184"/>
+      <c r="AR23" s="184"/>
+      <c r="AS23" s="184"/>
+      <c r="AT23" s="184"/>
+      <c r="AU23" s="184"/>
+      <c r="AV23" s="185"/>
+    </row>
+    <row r="24" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K24" s="172"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="153"/>
+      <c r="Q24" s="153"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="156"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="153"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="153"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="153"/>
+      <c r="AE24" s="153"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="153"/>
+      <c r="AH24" s="153"/>
+      <c r="AI24" s="156"/>
+      <c r="AK24" s="172"/>
+      <c r="AL24" s="153"/>
+      <c r="AM24" s="153"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="153"/>
+      <c r="AP24" s="153"/>
+      <c r="AQ24" s="153"/>
+      <c r="AR24" s="153"/>
+      <c r="AS24" s="153"/>
+      <c r="AT24" s="153"/>
+      <c r="AU24" s="153"/>
+      <c r="AV24" s="156"/>
+    </row>
+    <row r="25" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K25" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S25" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" s="153"/>
+      <c r="V25" s="156"/>
+      <c r="X25" s="186"/>
+      <c r="Y25" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z25" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA25" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB25" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC25" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD25" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE25" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF25" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG25" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH25" s="153"/>
+      <c r="AI25" s="156"/>
+      <c r="AK25" s="140"/>
+      <c r="AL25" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM25" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN25" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO25" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP25" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ25" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR25" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS25" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT25" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" s="153"/>
+      <c r="AV25" s="156"/>
+    </row>
+    <row r="26" spans="11:48" x14ac:dyDescent="0.35">
+      <c r="K26" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="181">
+        <v>810</v>
+      </c>
+      <c r="M26" s="147">
+        <v>782</v>
+      </c>
+      <c r="N26" s="148">
+        <f>(L26-M26)*2.381</f>
+        <v>66.667999999999992</v>
+      </c>
+      <c r="O26" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P26" s="147">
+        <f>O26*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q26" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R26" s="147">
+        <f>Q26*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S26" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P26)+(1/COS(RADIANS(15)*R26)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T26" s="152">
+        <f>N26*10^3/S26</f>
+        <v>1265.4905975095517</v>
+      </c>
+      <c r="U26" s="153"/>
+      <c r="V26" s="154">
+        <f>($T$28-T26)^2</f>
+        <v>2042.6868015115813</v>
+      </c>
+      <c r="X26" s="191"/>
+      <c r="Y26" s="209"/>
+      <c r="Z26" s="210"/>
+      <c r="AA26" s="148">
+        <f>(AL26-AM26)*2.381</f>
+        <v>35.714999999999996</v>
+      </c>
+      <c r="AB26" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC26" s="147">
+        <f>AB26*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD26" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE26" s="147">
+        <f>AD26*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF26" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC26)+(1/COS(RADIANS(15)*AE26)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG26" s="197">
+        <f>AA26*10^3/AF26</f>
+        <v>243.38135244545231</v>
+      </c>
+      <c r="AH26" s="153"/>
+      <c r="AI26" s="156"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="182">
+        <v>569</v>
+      </c>
+      <c r="AM26" s="147">
+        <v>554</v>
+      </c>
+      <c r="AN26" s="148" t="e">
+        <f>(#REF!-#REF!)*2.381</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO26" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP26" s="147">
+        <f>AO26*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ26" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR26" s="147">
+        <f>AQ26*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS26" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP26)+(1/COS(RADIANS(15)*AR26)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT26" s="197" t="e">
+        <f>AN26*10^3/AS26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU26" s="153"/>
+      <c r="AV26" s="156"/>
+    </row>
+    <row r="27" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K27" s="162" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="163">
+        <v>810</v>
+      </c>
+      <c r="M27" s="164">
+        <v>780</v>
+      </c>
+      <c r="N27" s="165">
+        <f>(L27-M27)*2.381</f>
+        <v>71.429999999999993</v>
+      </c>
+      <c r="O27" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P27" s="164">
+        <f>O27*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q27" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R27" s="164">
+        <f>Q27*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S27" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P27)+(1/COS(RADIANS(15)*R27)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T27" s="170">
+        <f>N27*10^3/S27</f>
+        <v>1355.8827830459481</v>
+      </c>
+      <c r="U27" s="153"/>
+      <c r="V27" s="154">
+        <f>($T$28-T27)^2</f>
+        <v>2042.6868015115813</v>
+      </c>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="165">
+        <f t="shared" ref="AA26:AA27" si="31">(Y27-Z27)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="166">
+        <v>133.5</v>
+      </c>
+      <c r="AC27" s="164">
+        <f t="shared" ref="AC27" si="32">AB27*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD27" s="166">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE27" s="164">
+        <f t="shared" ref="AE27" si="33">AD27*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF27" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AC27)+(1/COS(RADIANS(15)*AE27)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG27" s="199">
+        <f>AA27*10^3/AF27</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="153"/>
+      <c r="AI27" s="156"/>
+      <c r="AK27" s="171"/>
+      <c r="AL27" s="177"/>
+      <c r="AM27" s="178"/>
+      <c r="AN27" s="165">
+        <f t="shared" ref="AN26:AN27" si="34">(AL27-AM27)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="166">
+        <v>139.5</v>
+      </c>
+      <c r="AP27" s="164">
+        <f t="shared" ref="AP27" si="35">AO27*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ27" s="166">
+        <v>141.5</v>
+      </c>
+      <c r="AR27" s="164">
+        <f t="shared" ref="AR27" si="36">AQ27*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS27" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AP27)+(1/COS(RADIANS(15)*AR27)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT27" s="199">
+        <f>AN27*10^3/AS27</f>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="153"/>
+      <c r="AV27" s="156"/>
+    </row>
+    <row r="28" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K28" s="183"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="179">
+        <f>SUM(T26:T27)/2</f>
+        <v>1310.6866902777499</v>
+      </c>
+      <c r="U28" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" s="180">
+        <f>SQRT(SUM(V26:V27))</f>
+        <v>63.916927359058512</v>
+      </c>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="184"/>
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="184"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="184"/>
+      <c r="AE28" s="184"/>
+      <c r="AF28" s="184"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="185"/>
+      <c r="AK28" s="183"/>
+      <c r="AL28" s="184"/>
+      <c r="AM28" s="184"/>
+      <c r="AN28" s="184"/>
+      <c r="AO28" s="184"/>
+      <c r="AP28" s="184"/>
+      <c r="AQ28" s="184"/>
+      <c r="AR28" s="184"/>
+      <c r="AS28" s="184"/>
+      <c r="AT28" s="184"/>
+      <c r="AU28" s="184"/>
+      <c r="AV28" s="185"/>
+    </row>
+    <row r="30" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K31" s="132" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T31" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" s="138"/>
+      <c r="V31" s="139"/>
+    </row>
+    <row r="32" spans="11:48" x14ac:dyDescent="0.35">
+      <c r="K32" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="181">
+        <v>808</v>
+      </c>
+      <c r="M32" s="147">
+        <v>728</v>
+      </c>
+      <c r="N32" s="148">
+        <f>(L32-M32)*2.381</f>
+        <v>190.48</v>
+      </c>
+      <c r="O32" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P32" s="147">
+        <f>O32*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q32" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R32" s="147">
+        <f>Q32*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S32" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P32)+(1/COS(RADIANS(15)*R32)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T32" s="152">
+        <f>N32*10^3/S32</f>
+        <v>3615.6874214558625</v>
+      </c>
+      <c r="U32" s="153"/>
+      <c r="V32" s="154">
+        <f>($T$34-T32)^2</f>
+        <v>204268.68015115813</v>
+      </c>
+    </row>
+    <row r="33" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="163">
+        <v>808</v>
+      </c>
+      <c r="M33" s="164">
+        <v>708</v>
+      </c>
+      <c r="N33" s="165">
+        <f>(L33-M33)*2.381</f>
+        <v>238.09999999999997</v>
+      </c>
+      <c r="O33" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P33" s="164">
+        <f>O33*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q33" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R33" s="164">
+        <f>Q33*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S33" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P33)+(1/COS(RADIANS(15)*R33)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T33" s="170">
+        <f>N33*10^3/S33</f>
+        <v>4519.6092768198278</v>
+      </c>
+      <c r="U33" s="153"/>
+      <c r="V33" s="154">
+        <f>($T$34-T33)^2</f>
+        <v>204268.68015115854</v>
+      </c>
+    </row>
+    <row r="34" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K34" s="183"/>
+      <c r="L34" s="184"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="184"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="179">
+        <f>SUM(T32:T33)/2</f>
+        <v>4067.6483491378449</v>
+      </c>
+      <c r="U34" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="180">
+        <f>SQRT(SUM(V32:V33))</f>
+        <v>639.16927359058548</v>
+      </c>
+    </row>
+    <row r="35" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K35" s="172"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
+      <c r="N35" s="153"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="153"/>
+      <c r="Q35" s="153"/>
+      <c r="R35" s="153"/>
+      <c r="S35" s="153"/>
+      <c r="T35" s="153"/>
+      <c r="U35" s="153"/>
+      <c r="V35" s="156"/>
+    </row>
+    <row r="36" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K36" s="132" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P36" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U36" s="153"/>
+      <c r="V36" s="156"/>
+    </row>
+    <row r="37" spans="11:48" x14ac:dyDescent="0.35">
+      <c r="K37" s="145" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" s="181">
+        <v>807</v>
+      </c>
+      <c r="M37" s="147">
+        <v>711</v>
+      </c>
+      <c r="N37" s="148">
+        <f>(L37-M37)*2.381</f>
+        <v>228.57599999999996</v>
+      </c>
+      <c r="O37" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P37" s="147">
+        <f>O37*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q37" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R37" s="147">
+        <f>Q37*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S37" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P37)+(1/COS(RADIANS(15)*R37)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T37" s="152">
+        <f>N37*10^3/S37</f>
+        <v>4338.8249057470348</v>
+      </c>
+      <c r="U37" s="153"/>
+      <c r="V37" s="154">
+        <f>($T$23-T37)^2</f>
+        <v>5846680.2976265317</v>
+      </c>
+    </row>
+    <row r="38" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="163">
+        <v>808</v>
+      </c>
+      <c r="M38" s="164">
+        <v>720</v>
+      </c>
+      <c r="N38" s="165">
+        <f>(L38-M38)*2.381</f>
+        <v>209.52799999999999</v>
+      </c>
+      <c r="O38" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P38" s="164">
+        <f>O38*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q38" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R38" s="164">
+        <f>Q38*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S38" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P38)+(1/COS(RADIANS(15)*R38)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T38" s="170">
+        <f>N38*10^3/S38</f>
+        <v>3977.2561636014489</v>
+      </c>
+      <c r="U38" s="153"/>
+      <c r="V38" s="154">
+        <f>($T$23-T38)^2</f>
+        <v>4228872.3508293582</v>
+      </c>
+    </row>
+    <row r="39" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K39" s="183"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="184"/>
+      <c r="S39" s="184"/>
+      <c r="T39" s="179">
+        <f>SUM(T37:T38)/2</f>
+        <v>4158.0405346742418</v>
+      </c>
+      <c r="U39" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" s="180">
+        <f>SQRT(SUM(V37:V38))</f>
+        <v>3174.201103971815</v>
+      </c>
+    </row>
+    <row r="41" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K42" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="O42" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="P42" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="R42" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="T42" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="138"/>
+      <c r="V42" s="139"/>
+      <c r="X42" s="186"/>
+      <c r="Y42" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z42" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB42" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC42" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD42" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE42" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF42" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG42" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH42" s="138"/>
+      <c r="AI42" s="139"/>
+      <c r="AK42" s="140"/>
+      <c r="AL42" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM42" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN42" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO42" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP42" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ42" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR42" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS42" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT42" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU42" s="138"/>
+      <c r="AV42" s="139"/>
+    </row>
+    <row r="43" spans="11:48" x14ac:dyDescent="0.35">
+      <c r="K43" s="145" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="181">
+        <v>806</v>
+      </c>
+      <c r="M43" s="147">
+        <v>775</v>
+      </c>
+      <c r="N43" s="148">
+        <f>(L43-M43)*2.381</f>
+        <v>73.810999999999993</v>
+      </c>
+      <c r="O43" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="P43" s="147">
+        <f>O43*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q43" s="147">
+        <v>45.81</v>
+      </c>
+      <c r="R43" s="147">
+        <f>Q43*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S43" s="151">
+        <f>(($F$9/COS(RADIANS(0))*P43)+(1/COS(RADIANS(15)*R43)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T43" s="152">
+        <f>N43*10^3/S43</f>
+        <v>1401.0788758141468</v>
+      </c>
+      <c r="U43" s="153"/>
+      <c r="V43" s="154">
+        <f>($T$46-T43)^2</f>
+        <v>3631.4432026872464</v>
+      </c>
+      <c r="X43" s="191"/>
+      <c r="Y43" s="211">
+        <v>641</v>
+      </c>
+      <c r="Z43" s="210"/>
+      <c r="AA43" s="148">
+        <f>(AL43-AM43)*2.381</f>
+        <v>1402.4089999999999</v>
+      </c>
+      <c r="AB43" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC43" s="147">
+        <f>AB43*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD43" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE43" s="147">
+        <f>AD43*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF43" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC43)+(1/COS(RADIANS(15)*AE43)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG43" s="197">
+        <f>AA43*10^3/AF43</f>
+        <v>9556.7744393580942</v>
+      </c>
+      <c r="AH43" s="153"/>
+      <c r="AI43" s="156"/>
+      <c r="AK43" s="155"/>
+      <c r="AL43" s="182">
+        <v>589</v>
+      </c>
+      <c r="AM43" s="147"/>
+      <c r="AN43" s="148" t="e">
+        <f>(#REF!-#REF!)*2.381</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO43" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP43" s="147">
+        <f>AO43*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ43" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR43" s="147">
+        <f>AQ43*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS43" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP43)+(1/COS(RADIANS(15)*AR43)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT43" s="197" t="e">
+        <f>AN43*10^3/AS43</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU43" s="153"/>
+      <c r="AV43" s="156"/>
+    </row>
+    <row r="44" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K44" s="162" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="163">
+        <v>806</v>
+      </c>
+      <c r="M44" s="164">
+        <v>774</v>
+      </c>
+      <c r="N44" s="165">
+        <f>(L44-M44)*2.381</f>
+        <v>76.191999999999993</v>
+      </c>
+      <c r="O44" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P44" s="164">
+        <f>O44*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q44" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R44" s="164">
+        <f>Q44*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S44" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P44)+(1/COS(RADIANS(15)*R44)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T44" s="170">
+        <f>N44*10^3/S44</f>
+        <v>1446.2749685823451</v>
+      </c>
+      <c r="U44" s="153"/>
+      <c r="V44" s="154">
+        <f>($T$46-T44)^2</f>
+        <v>226.9652001679512</v>
+      </c>
+      <c r="X44" s="193"/>
+      <c r="Y44" s="163"/>
+      <c r="Z44" s="164"/>
+      <c r="AA44" s="165">
+        <f t="shared" ref="AA44:AA45" si="37">(Y44-Z44)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="166">
+        <v>133.5</v>
+      </c>
+      <c r="AC44" s="164">
+        <f t="shared" ref="AC44" si="38">AB44*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD44" s="166">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE44" s="164">
+        <f t="shared" ref="AE44" si="39">AD44*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF44" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AC44)+(1/COS(RADIANS(15)*AE44)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG44" s="199">
+        <f>AA44*10^3/AF44</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="153"/>
+      <c r="AI44" s="156"/>
+      <c r="AK44" s="171"/>
+      <c r="AL44" s="177"/>
+      <c r="AM44" s="178"/>
+      <c r="AN44" s="165">
+        <f t="shared" ref="AN44:AN45" si="40">(AL44-AM44)*2.381</f>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="166">
+        <v>139.5</v>
+      </c>
+      <c r="AP44" s="164">
+        <f t="shared" ref="AP44" si="41">AO44*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ44" s="166">
+        <v>141.5</v>
+      </c>
+      <c r="AR44" s="164">
+        <f t="shared" ref="AR44" si="42">AQ44*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS44" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AP44)+(1/COS(RADIANS(15)*AR44)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT44" s="199">
+        <f>AN44*10^3/AS44</f>
+        <v>0</v>
+      </c>
+      <c r="AU44" s="153"/>
+      <c r="AV44" s="156"/>
+    </row>
+    <row r="45" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K45" s="162" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="163">
+        <v>806</v>
+      </c>
+      <c r="M45" s="164">
+        <v>772</v>
+      </c>
+      <c r="N45" s="165">
+        <f>(L45-M45)*2.381</f>
+        <v>80.953999999999994</v>
+      </c>
+      <c r="O45" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="P45" s="164">
+        <f>O45*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="Q45" s="166">
+        <v>45.81</v>
+      </c>
+      <c r="R45" s="164">
+        <f>Q45*$B$2/10</f>
+        <v>51.811110000000006</v>
+      </c>
+      <c r="S45" s="169">
+        <f>(($F$9/COS(RADIANS(0))*P45)+(1/COS(RADIANS(15)*R45)))</f>
+        <v>52.681545110805764</v>
+      </c>
+      <c r="T45" s="170">
+        <f>N45*10^3/S45</f>
+        <v>1536.6671541187416</v>
+      </c>
+      <c r="U45" s="153"/>
+      <c r="V45" s="154">
+        <f>($T$46-T45)^2</f>
+        <v>5674.1300041988488</v>
+      </c>
+      <c r="X45" s="183"/>
+      <c r="Y45" s="184"/>
+      <c r="Z45" s="184"/>
+      <c r="AA45" s="184"/>
+      <c r="AB45" s="184"/>
+      <c r="AC45" s="184"/>
+      <c r="AD45" s="184"/>
+      <c r="AE45" s="184"/>
+      <c r="AF45" s="184"/>
+      <c r="AG45" s="184"/>
+      <c r="AH45" s="184"/>
+      <c r="AI45" s="185"/>
+      <c r="AK45" s="183"/>
+      <c r="AL45" s="184"/>
+      <c r="AM45" s="184"/>
+      <c r="AN45" s="184"/>
+      <c r="AO45" s="184"/>
+      <c r="AP45" s="184"/>
+      <c r="AQ45" s="184"/>
+      <c r="AR45" s="184"/>
+      <c r="AS45" s="184"/>
+      <c r="AT45" s="184"/>
+      <c r="AU45" s="184"/>
+      <c r="AV45" s="185"/>
+    </row>
+    <row r="46" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K46" s="183"/>
+      <c r="L46" s="184"/>
+      <c r="M46" s="184"/>
+      <c r="N46" s="184"/>
+      <c r="O46" s="184"/>
+      <c r="P46" s="184"/>
+      <c r="Q46" s="184"/>
+      <c r="R46" s="184"/>
+      <c r="S46" s="184"/>
+      <c r="T46" s="179">
+        <f>SUM(T43:T45)/3</f>
+        <v>1461.3403328384111</v>
+      </c>
+      <c r="U46" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="V46" s="180">
+        <f>SQRT(SUM(V43:V44)/2)</f>
+        <v>43.922707127721516</v>
+      </c>
+    </row>
+    <row r="47" spans="11:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="11:48" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X48" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y48" s="187" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z48" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA48" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB48" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC48" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD48" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE48" s="188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF48" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG48" s="190" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH48" s="138"/>
+      <c r="AI48" s="139"/>
+      <c r="AK48" s="140"/>
+      <c r="AL48" s="141" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM48" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN48" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO48" s="142" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP48" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ48" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR48" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS48" s="143" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT48" s="201" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU48" s="138"/>
+      <c r="AV48" s="139"/>
+    </row>
+    <row r="49" spans="24:48" x14ac:dyDescent="0.35">
+      <c r="X49" s="191" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y49" s="211">
+        <v>641</v>
+      </c>
+      <c r="Z49" s="210"/>
+      <c r="AA49" s="148">
+        <f>(AL49-AM49)*2.381</f>
+        <v>1402.4089999999999</v>
+      </c>
+      <c r="AB49" s="147">
+        <v>133.5</v>
+      </c>
+      <c r="AC49" s="147">
+        <f>AB49*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD49" s="147">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE49" s="147">
+        <f>AD49*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF49" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AC49)+(1/COS(RADIANS(15)*AE49)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG49" s="197">
+        <f>AA49*10^3/AF49</f>
+        <v>9556.7744393580942</v>
+      </c>
+      <c r="AH49" s="153"/>
+      <c r="AI49" s="156"/>
+      <c r="AK49" s="155"/>
+      <c r="AL49" s="182">
+        <v>589</v>
+      </c>
+      <c r="AM49" s="147"/>
+      <c r="AN49" s="148" t="e">
+        <f>(#REF!-#REF!)*2.381</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AO49" s="147">
+        <v>139.5</v>
+      </c>
+      <c r="AP49" s="147">
+        <f>AO49*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ49" s="147">
+        <v>141.5</v>
+      </c>
+      <c r="AR49" s="147">
+        <f>AQ49*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS49" s="151">
+        <f>(($F$9/COS(RADIANS(0))*AP49)+(1/COS(RADIANS(15)*AR49)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT49" s="197" t="e">
+        <f>AN49*10^3/AS49</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AU49" s="153"/>
+      <c r="AV49" s="156"/>
+    </row>
+    <row r="50" spans="24:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X50" s="193" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y50" s="163">
+        <v>641</v>
+      </c>
+      <c r="Z50" s="164"/>
+      <c r="AA50" s="165">
+        <f t="shared" ref="AA50:AA51" si="43">(Y50-Z50)*2.381</f>
+        <v>1526.2209999999998</v>
+      </c>
+      <c r="AB50" s="166">
+        <v>133.5</v>
+      </c>
+      <c r="AC50" s="164">
+        <f t="shared" ref="AC50" si="44">AB50*$B$2/10</f>
+        <v>150.98849999999999</v>
+      </c>
+      <c r="AD50" s="166">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="AE50" s="164">
+        <f t="shared" ref="AE50" si="45">AD50*$B$2/10</f>
+        <v>153.02430000000001</v>
+      </c>
+      <c r="AF50" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AC50)+(1/COS(RADIANS(15)*AE50)))</f>
+        <v>146.74501411526421</v>
+      </c>
+      <c r="AG50" s="199">
+        <f>AA50*10^3/AF50</f>
+        <v>10400.496461168996</v>
+      </c>
+      <c r="AH50" s="153"/>
+      <c r="AI50" s="156"/>
+      <c r="AK50" s="171"/>
+      <c r="AL50" s="177">
+        <v>589</v>
+      </c>
+      <c r="AM50" s="178"/>
+      <c r="AN50" s="165">
+        <f t="shared" ref="AN50:AN51" si="46">(AL50-AM50)*2.381</f>
+        <v>1402.4089999999999</v>
+      </c>
+      <c r="AO50" s="166">
+        <v>139.5</v>
+      </c>
+      <c r="AP50" s="164">
+        <f t="shared" ref="AP50" si="47">AO50*$B$2/10</f>
+        <v>157.77450000000002</v>
+      </c>
+      <c r="AQ50" s="166">
+        <v>141.5</v>
+      </c>
+      <c r="AR50" s="164">
+        <f t="shared" ref="AR50" si="48">AQ50*$B$2/10</f>
+        <v>160.03649999999999</v>
+      </c>
+      <c r="AS50" s="169">
+        <f>(($F$9/COS(RADIANS(0))*AP50)+(1/COS(RADIANS(15)*AR50)))</f>
+        <v>152.7750043830697</v>
+      </c>
+      <c r="AT50" s="199">
+        <f>AN50*10^3/AS50</f>
+        <v>9179.5710015729037</v>
+      </c>
+      <c r="AU50" s="153"/>
+      <c r="AV50" s="156"/>
+    </row>
+    <row r="51" spans="24:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="X51" s="183"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="184"/>
+      <c r="AA51" s="184"/>
+      <c r="AB51" s="184"/>
+      <c r="AC51" s="184"/>
+      <c r="AD51" s="184"/>
+      <c r="AE51" s="184"/>
+      <c r="AF51" s="184"/>
+      <c r="AG51" s="184"/>
+      <c r="AH51" s="184"/>
+      <c r="AI51" s="185"/>
+      <c r="AK51" s="183"/>
+      <c r="AL51" s="184"/>
+      <c r="AM51" s="184"/>
+      <c r="AN51" s="184"/>
+      <c r="AO51" s="184"/>
+      <c r="AP51" s="184"/>
+      <c r="AQ51" s="184"/>
+      <c r="AR51" s="184"/>
+      <c r="AS51" s="184"/>
+      <c r="AT51" s="184"/>
+      <c r="AU51" s="184"/>
+      <c r="AV51" s="185"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
+++ b/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="90">
   <si>
     <t>2000 keV</t>
   </si>
@@ -421,7 +421,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +614,12 @@
         <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -1012,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,6 +1617,7 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1931,11 +1938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4098608"/>
-        <c:axId val="4111120"/>
+        <c:axId val="-1781517584"/>
+        <c:axId val="-1781511600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4098608"/>
+        <c:axId val="-1781517584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,12 +2020,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4111120"/>
+        <c:crossAx val="-1781511600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4111120"/>
+        <c:axId val="-1781511600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,7 +2103,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4098608"/>
+        <c:crossAx val="-1781517584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,7 +2322,7 @@
             <c:numRef>
               <c:f>('[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$16,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$21,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$26)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>954.79088945786589</c:v>
@@ -2339,11 +2346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="4102416"/>
-        <c:axId val="4107856"/>
+        <c:axId val="-1781509424"/>
+        <c:axId val="-1781511056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4102416"/>
+        <c:axId val="-1781509424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2431,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4107856"/>
+        <c:crossAx val="-1781511056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4107856"/>
+        <c:axId val="-1781511056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2517,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2547,7 +2554,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4102416"/>
+        <c:crossAx val="-1781509424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3230,7 +3237,7 @@
       <sheetName val="Ta-Nb-V Calib - RBS1 - Protoes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="I2">
@@ -3293,7 +3300,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3564,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3695,8 +3702,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
+      <c r="A7" s="212">
+        <v>1</v>
       </c>
       <c r="B7" s="25">
         <v>4</v>
@@ -3736,6 +3743,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="212">
+        <v>1</v>
+      </c>
       <c r="B9" s="26">
         <v>6</v>
       </c>
@@ -3770,6 +3780,9 @@
       <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="212">
+        <v>1</v>
+      </c>
       <c r="B11" s="27">
         <v>8</v>
       </c>
@@ -3812,6 +3825,9 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="212">
+        <v>1</v>
+      </c>
       <c r="B13" s="47">
         <v>10</v>
       </c>
@@ -3895,7 +3911,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="212"/>
       <c r="B17" s="30">
         <v>13</v>
       </c>
@@ -3920,7 +3937,7 @@
       <c r="I17" s="6"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="31">
         <v>14</v>
       </c>
@@ -3943,7 +3960,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="212"/>
       <c r="B19" s="32">
         <v>15</v>
       </c>
@@ -3958,7 +3976,7 @@
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="55">
         <v>16</v>
       </c>
@@ -3975,7 +3993,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="212"/>
       <c r="B21" s="58">
         <v>17</v>
       </c>
@@ -3992,7 +4011,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="212"/>
       <c r="B22" s="62">
         <v>18</v>
       </c>
@@ -4011,7 +4031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="66">
         <v>19</v>
       </c>
@@ -4030,7 +4050,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="212"/>
       <c r="B24" s="69">
         <v>20</v>
       </c>
@@ -4068,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="AC59" sqref="AC59"/>
+    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5884,7 +5905,7 @@
       <c r="Y27" s="163"/>
       <c r="Z27" s="164"/>
       <c r="AA27" s="165">
-        <f t="shared" ref="AA26:AA27" si="31">(Y27-Z27)*2.381</f>
+        <f t="shared" ref="AA27" si="31">(Y27-Z27)*2.381</f>
         <v>0</v>
       </c>
       <c r="AB27" s="166">
@@ -5915,7 +5936,7 @@
       <c r="AL27" s="177"/>
       <c r="AM27" s="178"/>
       <c r="AN27" s="165">
-        <f t="shared" ref="AN26:AN27" si="34">(AL27-AM27)*2.381</f>
+        <f t="shared" ref="AN27" si="34">(AL27-AM27)*2.381</f>
         <v>0</v>
       </c>
       <c r="AO27" s="166">
@@ -6532,7 +6553,7 @@
       <c r="Y44" s="163"/>
       <c r="Z44" s="164"/>
       <c r="AA44" s="165">
-        <f t="shared" ref="AA44:AA45" si="37">(Y44-Z44)*2.381</f>
+        <f t="shared" ref="AA44" si="37">(Y44-Z44)*2.381</f>
         <v>0</v>
       </c>
       <c r="AB44" s="166">
@@ -6563,7 +6584,7 @@
       <c r="AL44" s="177"/>
       <c r="AM44" s="178"/>
       <c r="AN44" s="165">
-        <f t="shared" ref="AN44:AN45" si="40">(AL44-AM44)*2.381</f>
+        <f t="shared" ref="AN44" si="40">(AL44-AM44)*2.381</f>
         <v>0</v>
       </c>
       <c r="AO44" s="166">
@@ -6823,7 +6844,7 @@
       </c>
       <c r="Z50" s="164"/>
       <c r="AA50" s="165">
-        <f t="shared" ref="AA50:AA51" si="43">(Y50-Z50)*2.381</f>
+        <f t="shared" ref="AA50" si="43">(Y50-Z50)*2.381</f>
         <v>1526.2209999999998</v>
       </c>
       <c r="AB50" s="166">
@@ -6856,7 +6877,7 @@
       </c>
       <c r="AM50" s="178"/>
       <c r="AN50" s="165">
-        <f t="shared" ref="AN50:AN51" si="46">(AL50-AM50)*2.381</f>
+        <f t="shared" ref="AN50" si="46">(AL50-AM50)*2.381</f>
         <v>1402.4089999999999</v>
       </c>
       <c r="AO50" s="166">

--- a/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
+++ b/RBS_21Janeiro/Logbook-RBS_21Janeiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Runs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="91">
   <si>
     <t>2000 keV</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>35 mm</t>
+  </si>
+  <si>
+    <t>Cu</t>
   </si>
 </sst>
 </file>
@@ -1938,11 +1941,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1781517584"/>
-        <c:axId val="-1781511600"/>
+        <c:axId val="80584976"/>
+        <c:axId val="80583888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1781517584"/>
+        <c:axId val="80584976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,12 +2023,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1781511600"/>
+        <c:crossAx val="80583888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1781511600"/>
+        <c:axId val="80583888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2106,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1781517584"/>
+        <c:crossAx val="80584976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2152,7 +2155,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2322,7 +2324,7 @@
             <c:numRef>
               <c:f>('[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$16,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$21,'[1]Ta-Nb-V Calib - RBS1 - Alfa'!$R$26)</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>954.79088945786589</c:v>
@@ -2346,11 +2348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1781509424"/>
-        <c:axId val="-1781511056"/>
+        <c:axId val="80590416"/>
+        <c:axId val="80586064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1781509424"/>
+        <c:axId val="80590416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,12 +2433,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1781511056"/>
+        <c:crossAx val="80586064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1781511056"/>
+        <c:axId val="80586064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2517,7 +2518,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2554,7 +2555,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1781509424"/>
+        <c:crossAx val="80590416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3571,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4089,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4184,7 +4185,7 @@
         <v>15.999000000000001</v>
       </c>
       <c r="F4" s="86">
-        <f t="shared" ref="F4:F11" si="0">((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
+        <f t="shared" ref="F4:F12" si="0">((SQRT(1-(1/E4)^2*SIN(RADIANS(165))^2)+1/E4*COS(RADIANS(165)))/(1+1/E4))^2</f>
         <v>0.78185798881983415</v>
       </c>
       <c r="G4" s="87">
@@ -4432,7 +4433,7 @@
         <v>0.9812026480871997</v>
       </c>
       <c r="G9" s="130">
-        <f t="shared" ref="G9:G11" si="5">$B$1*F9</f>
+        <f t="shared" ref="G9:G12" si="5">$B$1*F9</f>
         <v>1962.4052961743994</v>
       </c>
       <c r="H9" s="131">
@@ -4669,6 +4670,27 @@
       <c r="AV11" s="156"/>
     </row>
     <row r="12" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>63.545999999999999</v>
+      </c>
+      <c r="F12" s="204">
+        <f t="shared" si="0"/>
+        <v>0.93999634329545045</v>
+      </c>
+      <c r="G12" s="205">
+        <f t="shared" si="5"/>
+        <v>1879.9926865909008</v>
+      </c>
+      <c r="H12" s="208">
+        <f>(G12-46.367)/2.3671</f>
+        <v>774.62958328372304</v>
+      </c>
       <c r="K12" s="162" t="s">
         <v>70</v>
       </c>
